--- a/Recipe_List.xlsx
+++ b/Recipe_List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natew\Desktop\Fall 2016\CS_291\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natew\Documents\GitHub\Recipe-Repository-App\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
   <si>
     <t>MEXICAN RECIPES</t>
   </si>
@@ -330,6 +330,12 @@
   </si>
   <si>
     <t>Mixing bowl</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Serves 3-4</t>
   </si>
 </sst>
 </file>
@@ -664,8 +670,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1134,7 +1140,9 @@
       <c r="B72" s="1"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="B73" s="1"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -1335,7 +1343,9 @@
       <c r="A102" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B102" s="1"/>
+      <c r="B102" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Recipe_List.xlsx
+++ b/Recipe_List.xlsx
@@ -668,10 +668,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -700,650 +700,586 @@
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="B42" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="B43" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
+      <c r="A49" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="B49" s="2"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
+      <c r="A50" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="B50" s="2"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B51" s="2"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="A56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="1"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="1"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+      <c r="A58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B59" s="2"/>
+      <c r="A59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" s="2"/>
+      <c r="A60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" s="2"/>
+      <c r="A61" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
+      <c r="A62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B63" s="2"/>
+      <c r="A63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>69</v>
+      <c r="A64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>70</v>
+      <c r="A65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>71</v>
+      <c r="A66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
-        <v>72</v>
+      <c r="A68" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B72" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B73" s="1"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B75" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B77" s="1"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B78" s="1"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>81</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B79" s="1"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B80" s="1"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B81" s="1"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B89" s="1"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B94" s="1"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B95" s="1"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B102" s="1" t="s">
         <v>102</v>
       </c>
     </row>

--- a/Recipe_List.xlsx
+++ b/Recipe_List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="98">
   <si>
     <t>MEXICAN RECIPES</t>
   </si>
@@ -104,15 +104,9 @@
     <t>STEPS</t>
   </si>
   <si>
-    <t>1.)</t>
-  </si>
-  <si>
     <t>In a large skillet over medium-high heat, brown the ground beef and drain excess fat. Stir in the taco seasoning, chili beans and French-style dressing. Fill the dressing bottle 2/3 full of water and add to the skillet. Bring to a boil, reduce heat and simmer for 15 minutes.</t>
   </si>
   <si>
-    <t>2.)</t>
-  </si>
-  <si>
     <t>Crush the bag of chips, open the bag, and toss the broken chips into a large bowl with the lettuce, cheese and tomatoes. When the meat mixture is done, combine it with the lettuce, tomatoes, chips and mix well. Then, add salsa and sour cream.</t>
   </si>
   <si>
@@ -203,25 +197,13 @@
     <t>Stir in the refried beans and 3/4 of the salsa, leave some for topping, add the cheddar cheese and salt and peper to taste.</t>
   </si>
   <si>
-    <t>3.)</t>
-  </si>
-  <si>
     <t>Let the mixture warm on the stove for a few minutes just to melt the cheese; once the cheese is melted turn off the range.</t>
   </si>
   <si>
-    <t>4.)</t>
-  </si>
-  <si>
     <t>Warm the tortillas a few at a time in the microwave on a plate with a slightly damp paper tower on top.</t>
   </si>
   <si>
-    <t>5.)</t>
-  </si>
-  <si>
     <t>Place 2 ice cream scoop sizes of meat mixture in the middle of the shell, roll up and place seam side down in a lightly buttered 9x13 pan.</t>
-  </si>
-  <si>
-    <t>6.)</t>
   </si>
   <si>
     <t>Once you have rolled them all and placed in pans, brush lightly with butter or margarine. Spread remaining salsa on top (I like to use lots and have some left over if anyone wants to add more). Serve with extra salsa and sour cream.</t>
@@ -391,8 +373,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -670,8 +680,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -690,7 +700,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -807,64 +817,58 @@
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -873,12 +877,12 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2"/>
     </row>
@@ -905,64 +909,64 @@
         <v>13</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B40" s="2"/>
     </row>
@@ -974,103 +978,85 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B49" s="2"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B50" s="2"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B51" s="2"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -1081,7 +1067,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B57" s="1"/>
     </row>
@@ -1093,7 +1079,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B59" s="1"/>
     </row>
@@ -1105,79 +1091,79 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>10</v>
@@ -1185,18 +1171,18 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -1207,80 +1193,71 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B77" s="1"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B78" s="1"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B79" s="1"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B80" s="1"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B81" s="1"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Recipe_List.xlsx
+++ b/Recipe_List.xlsx
@@ -9,10 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10170" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mexican" sheetId="2" r:id="rId1"/>
+    <sheet name="Greek" sheetId="3" r:id="rId2"/>
+    <sheet name="Asian" sheetId="4" r:id="rId3"/>
+    <sheet name="Etc." sheetId="5" r:id="rId4"/>
+    <sheet name="Beverages" sheetId="6" r:id="rId5"/>
+    <sheet name="Breakfast" sheetId="7" r:id="rId6"/>
+    <sheet name="Desserts" sheetId="8" r:id="rId7"/>
+    <sheet name="Salads" sheetId="9" r:id="rId8"/>
+    <sheet name="Sides" sheetId="10" r:id="rId9"/>
+    <sheet name="Seafood" sheetId="12" r:id="rId10"/>
+    <sheet name="Entrees" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="259">
   <si>
     <t>MEXICAN RECIPES</t>
   </si>
@@ -47,18 +57,9 @@
     <t>14.5 oz</t>
   </si>
   <si>
-    <t>2 cps</t>
-  </si>
-  <si>
-    <t>1 cp</t>
-  </si>
-  <si>
     <t>4 Tbls</t>
   </si>
   <si>
-    <t>0.5 cp</t>
-  </si>
-  <si>
     <t>TITLE</t>
   </si>
   <si>
@@ -125,15 +126,9 @@
     <t>Prep</t>
   </si>
   <si>
-    <t>10m</t>
-  </si>
-  <si>
     <t>Cook</t>
   </si>
   <si>
-    <t>30m</t>
-  </si>
-  <si>
     <t>Temp</t>
   </si>
   <si>
@@ -167,9 +162,6 @@
     <t>Shredded cheddar cheese</t>
   </si>
   <si>
-    <t>1-2 cps</t>
-  </si>
-  <si>
     <t>Salt and Pepper</t>
   </si>
   <si>
@@ -215,12 +207,6 @@
     <t>9x13 baking pan</t>
   </si>
   <si>
-    <t>20 min</t>
-  </si>
-  <si>
-    <t>30 min</t>
-  </si>
-  <si>
     <t>200-250 F</t>
   </si>
   <si>
@@ -293,12 +279,6 @@
     <t>2 Tbls</t>
   </si>
   <si>
-    <t>15 min</t>
-  </si>
-  <si>
-    <t>10 min</t>
-  </si>
-  <si>
     <t>Heat 1 tablespoon of oil in a large skillet over medium-high heat. Add green onions and mushrooms, and fry until tender, stirring frequently.</t>
   </si>
   <si>
@@ -318,16 +298,537 @@
   </si>
   <si>
     <t>Serves 3-4</t>
+  </si>
+  <si>
+    <t>http://www.food.com/recipe/greek-pita-pizza-131968</t>
+  </si>
+  <si>
+    <t>Greek Pita Pizza</t>
+  </si>
+  <si>
+    <t>Pita Bread</t>
+  </si>
+  <si>
+    <t>3 pcs</t>
+  </si>
+  <si>
+    <t>Feta cheese, crumbled</t>
+  </si>
+  <si>
+    <t>2/3 c</t>
+  </si>
+  <si>
+    <t>Garlic cloves, minced</t>
+  </si>
+  <si>
+    <t>2 pcs</t>
+  </si>
+  <si>
+    <t>Tomato paste</t>
+  </si>
+  <si>
+    <t>1/3 c</t>
+  </si>
+  <si>
+    <t>Oregano</t>
+  </si>
+  <si>
+    <t>1 tsp</t>
+  </si>
+  <si>
+    <t>Red onions, finely dices</t>
+  </si>
+  <si>
+    <t>Kalamatas olives, diced</t>
+  </si>
+  <si>
+    <t>6 pcs</t>
+  </si>
+  <si>
+    <t>Bell pepper</t>
+  </si>
+  <si>
+    <t>1 c</t>
+  </si>
+  <si>
+    <t>Parmesan cheese, grated</t>
+  </si>
+  <si>
+    <t>Preheat oven to 350F and spray a large baking sheet lightly with cooking spray.</t>
+  </si>
+  <si>
+    <t>Carefully slice one edge of each pita and open to form a pocket.</t>
+  </si>
+  <si>
+    <t>Mix the pita filling ingredients and place in the pockets (about two tablespoons per pocket, and yes, it should be quite thick), spreading it as thin as it will go over the bottom of the pocket to about an inch from the edge.</t>
+  </si>
+  <si>
+    <t>Place the pitas on a baking sheet and spread top evenly with tomato paste, sprinkle with the oregano then top with the remaining pita toppings ending with the parmesan.</t>
+  </si>
+  <si>
+    <t>Bake for 15 minutes or until hot and the green pepper is done.</t>
+  </si>
+  <si>
+    <t>15 mins</t>
+  </si>
+  <si>
+    <t>350 F</t>
+  </si>
+  <si>
+    <t>Oven</t>
+  </si>
+  <si>
+    <t>Pizza tray</t>
+  </si>
+  <si>
+    <t>10 mins</t>
+  </si>
+  <si>
+    <t>0.5 c</t>
+  </si>
+  <si>
+    <t>3 Tbls</t>
+  </si>
+  <si>
+    <t>20 mins</t>
+  </si>
+  <si>
+    <t>30 mins</t>
+  </si>
+  <si>
+    <t>1-2 c</t>
+  </si>
+  <si>
+    <t>2 c</t>
+  </si>
+  <si>
+    <t>Serves 4</t>
+  </si>
+  <si>
+    <t>Ginger-Garlic Shrimp</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>3/2 tsp</t>
+  </si>
+  <si>
+    <t>Peeled shrimp</t>
+  </si>
+  <si>
+    <t>3/2 lbs</t>
+  </si>
+  <si>
+    <t>Slices of peeled ginger</t>
+  </si>
+  <si>
+    <t>8 pcs</t>
+  </si>
+  <si>
+    <t>Minced garlic</t>
+  </si>
+  <si>
+    <t>Shaohsing rice wine</t>
+  </si>
+  <si>
+    <t>Green onions</t>
+  </si>
+  <si>
+    <t>4 pcs</t>
+  </si>
+  <si>
+    <t>In a bowl, sprinkle 1 1/2 teaspoons salt over shrimp and mix gently with your hands, about 1 minute. Pour shrimp into a colander and rinse well with cool water.</t>
+  </si>
+  <si>
+    <t>Pour oil into a large frying pan over medium-high heat. Add ginger and garlic and stir until they sizzle, about 30 seconds.</t>
+  </si>
+  <si>
+    <t>Add shrimp and rice wine; stir constantly until shrimp are almost all pink on the outside, about 2 minutes. Add green onions and stir just until shrimp are opaque in the center (cut to test), about 1 minute longer.</t>
+  </si>
+  <si>
+    <t>Colander</t>
+  </si>
+  <si>
+    <t>Large frying pan</t>
+  </si>
+  <si>
+    <t>5 mins</t>
+  </si>
+  <si>
+    <t>http://www.myrecipes.com/recipe/ginger-garlic-shrimp</t>
+  </si>
+  <si>
+    <t>Vietnamese Noodle Soup</t>
+  </si>
+  <si>
+    <t>http://www.foodnetwork.com/recipes/food-network-kitchens/vietnamese-noodle-soup-recipe.html</t>
+  </si>
+  <si>
+    <t>Rice noodles</t>
+  </si>
+  <si>
+    <t>8 oz</t>
+  </si>
+  <si>
+    <t>Lean beef sirloin</t>
+  </si>
+  <si>
+    <t>Large onion, halved</t>
+  </si>
+  <si>
+    <t>Ginger unpeeled, halved</t>
+  </si>
+  <si>
+    <t>Low-sodium beef broth</t>
+  </si>
+  <si>
+    <t>3 c</t>
+  </si>
+  <si>
+    <t>Star anise pods</t>
+  </si>
+  <si>
+    <t>5 pcs</t>
+  </si>
+  <si>
+    <t>Cinnamon stick</t>
+  </si>
+  <si>
+    <t>Scallions</t>
+  </si>
+  <si>
+    <t>Jalapeno peppers</t>
+  </si>
+  <si>
+    <t>Fish sauce</t>
+  </si>
+  <si>
+    <t>Bean sprouts</t>
+  </si>
+  <si>
+    <t>Prepare the rice noodles as the label directs.</t>
+  </si>
+  <si>
+    <t>Meanwhile, place a large pot over high heat. Poke the meat all over with a fork to tenderize it and season with salt and pepper. Sear the meat until charred but still rare, 2 to 3 minutes per side, then transfer to a plate. Add the onion and ginger to the pot; cook about 4 minutes. Add the broth, 3 cups water, the star anise and cinnamon, reduce the heat and simmer about 20 minutes.</t>
+  </si>
+  <si>
+    <t>Meanwhile, thinly slice the scallions and jalapenos (remove seeds for less heat) and tear the cilantro. Thinly slice the meat against the grain. Drain the noodles.</t>
+  </si>
+  <si>
+    <t>Add the fish sauce to the broth and boil 5 minutes. Discard the ginger, star anise and cinnamon stick. Remove and slice the onion. Divide the noodles among 4 bowls; top with the broth, beef, scallions, cilantro, bean sprouts, jalapenos and onion.</t>
+  </si>
+  <si>
+    <t>Large pot</t>
+  </si>
+  <si>
+    <t>Chocolate Milk</t>
+  </si>
+  <si>
+    <t>Serves 2</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Powder sugar</t>
+  </si>
+  <si>
+    <t>Vanilla</t>
+  </si>
+  <si>
+    <t>Pour milk into blender. Add in cocoa, powder sugar, and vanilla. Blend all ingredients until fully incorporated, about 30 seconds.</t>
+  </si>
+  <si>
+    <t>Serve and enjoy!</t>
+  </si>
+  <si>
+    <t>This will last about one week covered in the fridge. (Or the life of the milk)</t>
+  </si>
+  <si>
+    <t>Blender</t>
+  </si>
+  <si>
+    <t>0 min</t>
+  </si>
+  <si>
+    <t>Ambient</t>
+  </si>
+  <si>
+    <t>http://iambaker.net/best-homemade-chocolate-milk/</t>
+  </si>
+  <si>
+    <t>http://www.foodnetwork.com/recipes/bobby-flay/basic-vanilla-milkshake-recipe.html</t>
+  </si>
+  <si>
+    <t>Basic Vanilla Shake</t>
+  </si>
+  <si>
+    <t>Serves 1</t>
+  </si>
+  <si>
+    <t>Premium vanilla ice cream</t>
+  </si>
+  <si>
+    <t>10 oz</t>
+  </si>
+  <si>
+    <t>In a blender, combine the milk and ice cream and blend until smooth. Serve immediately.</t>
+  </si>
+  <si>
+    <t>3 mins</t>
+  </si>
+  <si>
+    <t>http://www.incredibleegg.org/recipe/basic-scrambled-eggs/</t>
+  </si>
+  <si>
+    <t>Basic Scrambled Eggs</t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t>0.25 c</t>
+  </si>
+  <si>
+    <t>2 tsp</t>
+  </si>
+  <si>
+    <t>To taste</t>
+  </si>
+  <si>
+    <t>Beat eggs, milk, salt and pepper in medium bowl until blended.</t>
+  </si>
+  <si>
+    <t>Heat butter in large nonstick skillet over medium heat until hot. Pour in egg mixture. As eggs begin to set, gently pull the eggs across the pan with a spatula, forming large soft curds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continue cooking – pulling, lifting and folding eggs – until thickened and no visible liquid egg remains. </t>
+  </si>
+  <si>
+    <t>1 min</t>
+  </si>
+  <si>
+    <t>4 mins</t>
+  </si>
+  <si>
+    <t>French Toast</t>
+  </si>
+  <si>
+    <t>Ground nutmeg</t>
+  </si>
+  <si>
+    <t>0.25 tsp</t>
+  </si>
+  <si>
+    <t>Day-old bread</t>
+  </si>
+  <si>
+    <t>Beat eggs, milk and nutmeg in shallow dish until blended. Soak 1 bread slice at a time in egg mixture, turning once, letting stand about 1 minute per side.</t>
+  </si>
+  <si>
+    <t>Heat lightly greased large nonstick skillet over high heat until hot.</t>
+  </si>
+  <si>
+    <t>Place as many bread slices in hot pan as will fit in single layer. Immediately reduce heat to medium. Cook until golden brown and no visible liquid egg remains, 2 to 3 minutes per side. Repeat to cook remaining bread. Serve immediately.</t>
+  </si>
+  <si>
+    <t>http://www.midwestliving.com/recipe/quick-cherry-crisp/</t>
+  </si>
+  <si>
+    <t>Quick Cherry Crisp</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>Cornstarch</t>
+  </si>
+  <si>
+    <t>Pitted tart red cherries</t>
+  </si>
+  <si>
+    <t>4 c</t>
+  </si>
+  <si>
+    <t>Crumbled shortbread cookies</t>
+  </si>
+  <si>
+    <t>Melted butter</t>
+  </si>
+  <si>
+    <t>Chopped pecans or almonds</t>
+  </si>
+  <si>
+    <t>In a small bowl, combine sugar and cornstarch. In a large saucepan, sprinkle cornstarch mixture over cherries; stir to combine. Cook and stir over medium heat about 10 minutes or until thickened and bubbly. Cook and stir for 2 minutes more.</t>
+  </si>
+  <si>
+    <t>Meanwhile, in a medium bowl, thoroughly combine crumbled cookies, butter, and nuts.</t>
+  </si>
+  <si>
+    <t>Divide cherry mixture among four dessert dishes. Sprinkle cookie mixture over cherry mixture. If desired, serve with ice cream.</t>
+  </si>
+  <si>
+    <t>Large saucepan</t>
+  </si>
+  <si>
+    <t>Medium mixing bowl</t>
+  </si>
+  <si>
+    <t>8 mins</t>
+  </si>
+  <si>
+    <t>12 mins</t>
+  </si>
+  <si>
+    <t>http://www.midwestliving.com/recipe/rocky-road-parfaits/</t>
+  </si>
+  <si>
+    <t>Rocky Road Parfaits</t>
+  </si>
+  <si>
+    <t>0 mins</t>
+  </si>
+  <si>
+    <t>Chocolate fudge instant pudding</t>
+  </si>
+  <si>
+    <t>Frozen whipped dessert topping</t>
+  </si>
+  <si>
+    <t>Unsalted peanuts</t>
+  </si>
+  <si>
+    <t>Chocolate curls</t>
+  </si>
+  <si>
+    <t>Prepare pudding mix according to package directions using the milk. Remove 3/4 cup of the pudding and place in a small bowl; fold in whipped topping until combined.</t>
+  </si>
+  <si>
+    <t>Divide remaining plain chocolate pudding among four 6-ounce glasses or dessert dishes. Top with dessert topping mixture. Let stand for 5 to 10 minutes or until set.</t>
+  </si>
+  <si>
+    <t>Sprinkle with peanuts and marshmallows. If desired, garnish with chocolate curls.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Herb Salad with Veggies</t>
+  </si>
+  <si>
+    <t>Olive oil</t>
+  </si>
+  <si>
+    <t>Fresh lemon juice</t>
+  </si>
+  <si>
+    <t>3/2 Tbls</t>
+  </si>
+  <si>
+    <t>Small garlic clove, crushed</t>
+  </si>
+  <si>
+    <t>1/2 pc</t>
+  </si>
+  <si>
+    <t>Herb salad mix</t>
+  </si>
+  <si>
+    <t>5 oz</t>
+  </si>
+  <si>
+    <t>Grape tomatoes, halved</t>
+  </si>
+  <si>
+    <t>Yellow bell pepper</t>
+  </si>
+  <si>
+    <t>Broken pita chips</t>
+  </si>
+  <si>
+    <t>Crumbled feta</t>
+  </si>
+  <si>
+    <t>2 oz</t>
+  </si>
+  <si>
+    <t>In a large bowl, whisk together the oil, lemon juice, garlic, ¼ teaspoon salt, and ⅛ teaspoon black pepper.</t>
+  </si>
+  <si>
+    <t>Add the lettuce, tomatoes, bell pepper, pita chips, and Feta and toss to coat. Season with ¼ teaspoon each salt and black pepper.</t>
+  </si>
+  <si>
+    <t>Large bowl</t>
+  </si>
+  <si>
+    <t>Cutting board</t>
+  </si>
+  <si>
+    <t>http://www.realsimple.com/food-recipes/browse-all-recipes/herb-salad-mix-tomatoes-feta</t>
+  </si>
+  <si>
+    <t>http://www.realsimple.com/food-recipes/browse-all-recipes/frisee-blue-cheese-salad</t>
+  </si>
+  <si>
+    <t>Avocado and Blue Cheese Salad</t>
+  </si>
+  <si>
+    <t>Spiced almonds</t>
+  </si>
+  <si>
+    <t>Red wine vinegar</t>
+  </si>
+  <si>
+    <t>Dijon mustard</t>
+  </si>
+  <si>
+    <t>Honey</t>
+  </si>
+  <si>
+    <t>Large head frisee, leaves</t>
+  </si>
+  <si>
+    <t>Avocado</t>
+  </si>
+  <si>
+    <t>Blue cheese crumbles</t>
+  </si>
+  <si>
+    <t>3-5 mins</t>
+  </si>
+  <si>
+    <t>Heat oven to 350° F.  On a rimmed baking sheet, toast the almonds, tossing once, until golden, 3 to 5 minutes; let cool.</t>
+  </si>
+  <si>
+    <t>In a large bowl, whisk together the oil, vinegar, mustard, honey, ¼ teaspoon salt, and ⅛ teaspoon pepper.</t>
+  </si>
+  <si>
+    <t>Add the frisée, avocado, blue cheese, and almonds and toss to coat.</t>
+  </si>
+  <si>
+    <t>Baking sheet</t>
+  </si>
+  <si>
+    <t>Cocoa powder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -362,15 +863,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -677,16 +1182,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -696,40 +1200,40 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
@@ -737,7 +1241,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>2</v>
@@ -745,7 +1249,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -761,7 +1265,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -769,7 +1273,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -777,35 +1281,1410 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:B57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.7265625" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:B57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -815,13 +2694,15 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
@@ -833,435 +2714,1997 @@
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>33</v>
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B41" s="2"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>60</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B47" s="2"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="B49" s="2"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B77" s="1"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B78" s="1"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B79" s="1"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B80" s="1"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B81" s="1"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:B57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.26953125" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.08984375" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>